--- a/notebook/rdp_report_template.xlsx
+++ b/notebook/rdp_report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD44E9C1-C4B5-43E8-8A55-14CC77C19D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316CC68-FA52-4859-99E0-204457B094B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22416" yWindow="588" windowWidth="21204" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="300" windowWidth="25440" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>{{ historical_title }}</t>
   </si>
   <si>
     <t>{{graph}}</t>
-  </si>
-  <si>
-    <t>&lt;frame&gt;</t>
   </si>
   <si>
     <t>{{ df_historical }}</t>
@@ -397,45 +394,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
